--- a/美智医疗/检查服务设计书原材料0717.xlsx
+++ b/美智医疗/检查服务设计书原材料0717.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64347DB-8D49-42E5-99F3-FF25740A080F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{52781278-CFEC-F74E-9AE2-F75B161FDAEB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="18948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="343">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1338,15 +1338,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. 预约的检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/PRSC_IN010101UV01/controlActProcess/subject/actAppointment/id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/PRSC_IN010101UV01/controlActProcess/subject/actAppointment/effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在检查预约中，该字段可以不存在</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在检查预约中，该字段可以不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增强或平扫是属于检查方法的一部分</t>
+    <rPh sb="0" eb="2">
+      <t>zeng q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 预约的检查方法</t>
+    <rPh sb="0" eb="2">
+      <t>fang fa</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 预约的检查号（Accession Number）</t>
+    <rPh sb="0" eb="2">
+      <t>yu yue</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1354,7 +1382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1568,6 +1596,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1595,10 +1627,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1886,17 +1914,17 @@
       <selection activeCell="B4" sqref="B4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1916,7 +1944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1934,7 +1962,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1952,7 +1980,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1962,7 +1990,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1972,7 +2000,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1982,7 +2010,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1992,7 +2020,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2021,20 +2049,20 @@
       <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +2092,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2083,7 +2111,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2104,7 +2132,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2125,7 +2153,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2146,7 +2174,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2165,7 +2193,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2184,7 +2212,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2205,7 +2233,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2224,7 +2252,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2243,7 +2271,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2264,7 +2292,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2283,7 +2311,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2306,7 +2334,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2327,7 +2355,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2348,7 +2376,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2361,7 +2389,7 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="34" t="s">
         <v>313</v>
       </c>
       <c r="F16" s="6"/>
@@ -2371,7 +2399,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2384,7 +2412,7 @@
       <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -2392,7 +2420,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2405,7 +2433,7 @@
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2413,7 +2441,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2426,7 +2454,7 @@
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
@@ -2434,7 +2462,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2447,7 +2475,7 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -2455,7 +2483,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2468,7 +2496,7 @@
       <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -2476,7 +2504,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2489,7 +2517,7 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -2497,7 +2525,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2510,7 +2538,7 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -2518,7 +2546,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2531,7 +2559,7 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -2539,7 +2567,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2552,7 +2580,7 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -2560,7 +2588,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2573,7 +2601,7 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -2581,7 +2609,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2594,7 +2622,7 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -2602,7 +2630,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2615,7 +2643,7 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -2623,7 +2651,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2642,7 +2670,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2661,7 +2689,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2682,7 +2710,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2705,7 +2733,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2724,7 +2752,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2743,7 +2771,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2764,7 +2792,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2785,7 +2813,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2808,7 +2836,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2827,7 +2855,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2848,7 +2876,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2867,7 +2895,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2886,7 +2914,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2905,7 +2933,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2926,7 +2954,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2949,7 +2977,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2968,7 +2996,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2991,7 +3019,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3014,7 +3042,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3041,7 +3069,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3066,7 +3094,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3089,7 +3117,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3112,7 +3140,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3133,7 +3161,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3154,7 +3182,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3177,7 +3205,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3200,7 +3228,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3221,7 +3249,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3242,7 +3270,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3263,7 +3291,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3276,7 +3304,7 @@
       <c r="D59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="34" t="s">
         <v>321</v>
       </c>
       <c r="F59" s="6"/>
@@ -3286,7 +3314,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3299,7 +3327,7 @@
       <c r="D60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
         <v>114</v>
@@ -3307,7 +3335,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3320,7 +3348,7 @@
       <c r="D61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="32"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3328,7 +3356,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3347,7 +3375,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3372,7 +3400,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3391,7 +3419,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3412,7 +3440,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3435,7 +3463,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3460,7 +3488,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3481,7 +3509,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3502,7 +3530,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3523,7 +3551,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3542,7 +3570,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3563,7 +3591,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3584,7 +3612,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3595,7 +3623,7 @@
         <v>189</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="37" t="s">
         <v>324</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3605,7 +3633,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3616,7 +3644,7 @@
         <v>191</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="34"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
@@ -3624,7 +3652,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3635,7 +3663,7 @@
         <v>193</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="34"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3643,7 +3671,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3654,7 +3682,7 @@
         <v>195</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="34"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3662,7 +3690,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3673,7 +3701,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="35"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="6" t="s">
         <v>114</v>
       </c>
@@ -3681,7 +3709,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3704,7 +3732,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3725,7 +3753,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3744,7 +3772,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3755,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="37" t="s">
         <v>326</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -3769,7 +3797,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3780,13 +3808,13 @@
         <v>156</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="34"/>
+      <c r="E83" s="38"/>
       <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3797,7 +3825,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="35"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="6"/>
       <c r="G84" s="4" t="s">
         <v>114</v>
@@ -3807,7 +3835,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -3818,7 +3846,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="32" t="s">
         <v>327</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -3830,7 +3858,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -3843,7 +3871,7 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="29"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="6" t="s">
         <v>114</v>
       </c>
@@ -3853,7 +3881,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -3866,7 +3894,7 @@
       <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="32" t="s">
         <v>328</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -3878,7 +3906,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -3891,7 +3919,7 @@
       <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4" t="s">
         <v>114</v>
@@ -3922,20 +3950,20 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
     <col min="6" max="6" width="93.33203125" customWidth="1"/>
-    <col min="10" max="10" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3948,10 +3976,10 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="28" t="s">
         <v>329</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -3961,7 +3989,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3974,17 +4002,17 @@
       <c r="D2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>330</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3995,14 +4023,14 @@
         <v>275</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="31" t="s">
         <v>334</v>
       </c>
       <c r="F3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4015,11 +4043,11 @@
       <c r="D4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="31" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4030,11 +4058,11 @@
         <v>280</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="40" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5" s="31" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4045,9 +4073,11 @@
         <v>282</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+      <c r="E6" s="31" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4058,12 +4088,12 @@
         <v>284</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="28" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4074,9 +4104,9 @@
         <v>286</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4087,9 +4117,11 @@
         <v>122</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E9" s="31" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4100,9 +4132,11 @@
         <v>289</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E10" s="31" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4113,9 +4147,9 @@
         <v>291</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4126,9 +4160,9 @@
         <v>293</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4139,12 +4173,12 @@
         <v>295</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="31"/>
       <c r="F13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4155,9 +4189,9 @@
         <v>297</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4168,12 +4202,12 @@
         <v>299</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="31"/>
       <c r="F15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4184,7 +4218,9 @@
         <v>301</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="31" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4204,13 +4240,13 @@
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4221,7 +4257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4230,7 +4266,7 @@
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4241,7 +4277,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4250,7 +4286,7 @@
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4259,7 +4295,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4270,7 +4306,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4279,7 +4315,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4288,7 +4324,7 @@
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4297,7 +4333,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4306,7 +4342,7 @@
       </c>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4315,7 +4351,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4324,7 +4360,7 @@
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4333,7 +4369,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4342,7 +4378,7 @@
       </c>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4351,7 +4387,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4360,7 +4396,7 @@
       </c>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4369,7 +4405,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4378,7 +4414,7 @@
       </c>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4387,7 +4423,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4396,7 +4432,7 @@
       </c>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4405,7 +4441,7 @@
       </c>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4414,7 +4450,7 @@
       </c>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4423,7 +4459,7 @@
       </c>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4432,7 +4468,7 @@
       </c>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4441,7 +4477,7 @@
       </c>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4450,7 +4486,7 @@
       </c>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4461,7 +4497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4470,7 +4506,7 @@
       </c>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4479,7 +4515,7 @@
       </c>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4488,7 +4524,7 @@
       </c>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4497,36 +4533,36 @@
       </c>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="40" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="36"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="40"/>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="36"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="40"/>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4535,7 +4571,7 @@
       </c>
       <c r="C35" s="5"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4544,7 +4580,7 @@
       </c>
       <c r="C36" s="5"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4555,7 +4591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4564,7 +4600,7 @@
       </c>
       <c r="C38" s="5"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4573,7 +4609,7 @@
       </c>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4582,7 +4618,7 @@
       </c>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4593,7 +4629,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4602,7 +4638,7 @@
       </c>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4613,7 +4649,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4624,7 +4660,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4635,7 +4671,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4646,94 +4682,94 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="40" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="36"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="40"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="36"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="40"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="40" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="36"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="40"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="36"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="40"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="40" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="36"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="40"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="36"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="40"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
         <v>55</v>
       </c>

--- a/美智医疗/检查服务设计书原材料0717.xlsx
+++ b/美智医疗/检查服务设计书原材料0717.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64347DB-8D49-42E5-99F3-FF25740A080F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4CBF8-D685-4BEE-88A3-0824DBFFFD5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="18948" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="18948" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="350">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1347,6 +1347,50 @@
   </si>
   <si>
     <t>/PRSC_IN010101UV01/controlActProcess/subject/actAppointment/effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/recordTarget/patientRole/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/componentOf/encompassingEncounter/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/componentOf/encompassingEncounter/code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/recordTarget/patientRole/patient/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/recordTarget/patientRole/patient/administrativeGenderCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/observation/value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/recordTarget/patientRole/patient/birthTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/componentOf/encompassingEncounter/location/healthCareFacility/serviceProviderOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/componentOf/encompassingEncounter/responsibleParty/assignedEntity/representedOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/componentOf/encompassingEncounter/location/healthCareFacility/serviceProviderOrganization/asOrganizationPartOf/wholeOrganization/name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1568,6 +1612,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1595,10 +1643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2361,7 +2408,7 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="E16" s="34" t="s">
         <v>313</v>
       </c>
       <c r="F16" s="6"/>
@@ -2384,7 +2431,7 @@
       <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -2405,7 +2452,7 @@
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="31"/>
+      <c r="E18" s="35"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2426,7 +2473,7 @@
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="31"/>
+      <c r="E19" s="35"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
@@ -2447,7 +2494,7 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="31"/>
+      <c r="E20" s="35"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -2468,7 +2515,7 @@
       <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="31"/>
+      <c r="E21" s="35"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -2489,7 +2536,7 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="31"/>
+      <c r="E22" s="35"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -2510,7 +2557,7 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="31"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -2531,7 +2578,7 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="31"/>
+      <c r="E24" s="35"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -2552,7 +2599,7 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="31"/>
+      <c r="E25" s="35"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -2573,7 +2620,7 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="31"/>
+      <c r="E26" s="35"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -2594,7 +2641,7 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="31"/>
+      <c r="E27" s="35"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -2615,7 +2662,7 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="32"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -3276,7 +3323,7 @@
       <c r="D59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="34" t="s">
         <v>321</v>
       </c>
       <c r="F59" s="6"/>
@@ -3299,7 +3346,7 @@
       <c r="D60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="31"/>
+      <c r="E60" s="35"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
         <v>114</v>
@@ -3320,7 +3367,7 @@
       <c r="D61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="32"/>
+      <c r="E61" s="36"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3595,7 +3642,7 @@
         <v>189</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="37" t="s">
         <v>324</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3616,7 +3663,7 @@
         <v>191</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="34"/>
+      <c r="E75" s="38"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
@@ -3635,7 +3682,7 @@
         <v>193</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="34"/>
+      <c r="E76" s="38"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3654,7 +3701,7 @@
         <v>195</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="34"/>
+      <c r="E77" s="38"/>
       <c r="F77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3673,7 +3720,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="35"/>
+      <c r="E78" s="39"/>
       <c r="F78" s="6" t="s">
         <v>114</v>
       </c>
@@ -3755,7 +3802,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="33" t="s">
+      <c r="E82" s="37" t="s">
         <v>326</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -3780,7 +3827,7 @@
         <v>156</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="34"/>
+      <c r="E83" s="38"/>
       <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -3797,7 +3844,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="35"/>
+      <c r="E84" s="39"/>
       <c r="F84" s="6"/>
       <c r="G84" s="4" t="s">
         <v>114</v>
@@ -3818,7 +3865,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="28" t="s">
+      <c r="E85" s="32" t="s">
         <v>327</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -3843,7 +3890,7 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="29"/>
+      <c r="E86" s="33"/>
       <c r="F86" s="6" t="s">
         <v>114</v>
       </c>
@@ -3866,7 +3913,7 @@
       <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="32" t="s">
         <v>328</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -3891,7 +3938,7 @@
       <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="29"/>
+      <c r="E88" s="33"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4" t="s">
         <v>114</v>
@@ -3921,7 +3968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3948,10 +3995,10 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="28" t="s">
         <v>329</v>
       </c>
       <c r="G1" s="18" t="s">
@@ -3974,10 +4021,10 @@
       <c r="D2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="28" t="s">
         <v>330</v>
       </c>
       <c r="J2" t="s">
@@ -3995,7 +4042,7 @@
         <v>275</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="31" t="s">
         <v>334</v>
       </c>
       <c r="F3" t="s">
@@ -4015,7 +4062,7 @@
       <c r="D4" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="31" t="s">
         <v>335</v>
       </c>
     </row>
@@ -4030,7 +4077,7 @@
         <v>280</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="31" t="s">
         <v>336</v>
       </c>
     </row>
@@ -4045,7 +4092,7 @@
         <v>282</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="40"/>
+      <c r="E6" s="31"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -4058,8 +4105,8 @@
         <v>284</v>
       </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="37" t="s">
+      <c r="E7" s="30"/>
+      <c r="F7" s="28" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4074,7 +4121,7 @@
         <v>286</v>
       </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="40"/>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
@@ -4087,7 +4134,7 @@
         <v>122</v>
       </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="40"/>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -4100,7 +4147,7 @@
         <v>289</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="40"/>
+      <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
@@ -4113,7 +4160,7 @@
         <v>291</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="40"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -4126,7 +4173,7 @@
         <v>293</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="40"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
@@ -4139,7 +4186,7 @@
         <v>295</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="40"/>
+      <c r="E13" s="31"/>
       <c r="F13" t="s">
         <v>338</v>
       </c>
@@ -4155,7 +4202,7 @@
         <v>297</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="40"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
@@ -4168,7 +4215,7 @@
         <v>299</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="40"/>
+      <c r="E15" s="31"/>
       <c r="F15" t="s">
         <v>337</v>
       </c>
@@ -4184,7 +4231,7 @@
         <v>301</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="40"/>
+      <c r="E16" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4198,19 +4245,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.77734375" customWidth="1"/>
+    <col min="4" max="4" width="114.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4220,8 +4268,11 @@
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4229,8 +4280,11 @@
         <v>222</v>
       </c>
       <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4240,8 +4294,11 @@
       <c r="C3" s="5" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4249,8 +4306,11 @@
         <v>309</v>
       </c>
       <c r="C4" s="5"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4258,8 +4318,11 @@
         <v>207</v>
       </c>
       <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4269,8 +4332,11 @@
       <c r="C6" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4278,8 +4344,11 @@
         <v>252</v>
       </c>
       <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4287,8 +4356,11 @@
         <v>268</v>
       </c>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4296,8 +4368,11 @@
         <v>223</v>
       </c>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4305,8 +4380,11 @@
         <v>226</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4314,8 +4392,11 @@
         <v>227</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4323,8 +4404,11 @@
         <v>204</v>
       </c>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4332,8 +4416,11 @@
         <v>239</v>
       </c>
       <c r="C13" s="5"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4341,8 +4428,11 @@
         <v>228</v>
       </c>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4350,8 +4440,11 @@
         <v>253</v>
       </c>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4504,7 +4597,7 @@
       <c r="B32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="36" t="s">
+      <c r="C32" s="40" t="s">
         <v>264</v>
       </c>
     </row>
@@ -4515,7 +4608,7 @@
       <c r="B33" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="36"/>
+      <c r="C33" s="40"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
@@ -4524,7 +4617,7 @@
       <c r="B34" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="36"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
@@ -4653,7 +4746,7 @@
       <c r="B47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="40" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4664,7 +4757,7 @@
       <c r="B48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="36"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4673,7 +4766,7 @@
       <c r="B49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="36"/>
+      <c r="C49" s="40"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
@@ -4682,7 +4775,7 @@
       <c r="B50" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="40" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4693,7 +4786,7 @@
       <c r="B51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="36"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -4702,7 +4795,7 @@
       <c r="B52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="36"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -4711,7 +4804,7 @@
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="40" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4722,7 +4815,7 @@
       <c r="B54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="36"/>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -4731,7 +4824,7 @@
       <c r="B55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="36"/>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -4751,5 +4844,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/美智医疗/检查服务设计书原材料0717.xlsx
+++ b/美智医疗/检查服务设计书原材料0717.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B4CBF8-D685-4BEE-88A3-0824DBFFFD5C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD766736-9E70-45EE-8222-2E96C378C722}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="18948" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="380">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1391,6 +1391,126 @@
   </si>
   <si>
     <t>/ClinicalDocument/componentOf/encompassingEncounter/location/healthCareFacility/serviceProviderOrganization/asOrganizationPartOf/wholeOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/participant/associatedEntity/scopingOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/participant/associatedEntity/associatedPerson/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/inFulfillmentOf/order/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/author/assignedAuthor/assignedPerson/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/code/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/code/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/value/originalText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/methodCode/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/methodCode/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/targetSiteCode/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/targetSiteCode/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/participant/participantRole/playingDevice/manufacturerModelName/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/effectiveTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/code/@displayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/confidentialityCode/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[3]/observation/value/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/value[1]/originalText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1549,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1616,6 +1736,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1643,8 +1766,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2408,7 +2531,7 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="35" t="s">
         <v>313</v>
       </c>
       <c r="F16" s="6"/>
@@ -2431,7 +2554,7 @@
       <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="35"/>
+      <c r="E17" s="36"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -2452,7 +2575,7 @@
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="35"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2473,7 +2596,7 @@
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="35"/>
+      <c r="E19" s="36"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
@@ -2494,7 +2617,7 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="35"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -2515,7 +2638,7 @@
       <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="35"/>
+      <c r="E21" s="36"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -2536,7 +2659,7 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="35"/>
+      <c r="E22" s="36"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -2557,7 +2680,7 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -2578,7 +2701,7 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="35"/>
+      <c r="E24" s="36"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -2599,7 +2722,7 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="35"/>
+      <c r="E25" s="36"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -2620,7 +2743,7 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -2641,7 +2764,7 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="35"/>
+      <c r="E27" s="36"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -2662,7 +2785,7 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="36"/>
+      <c r="E28" s="37"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -3323,7 +3446,7 @@
       <c r="D59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="34" t="s">
+      <c r="E59" s="35" t="s">
         <v>321</v>
       </c>
       <c r="F59" s="6"/>
@@ -3346,7 +3469,7 @@
       <c r="D60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="35"/>
+      <c r="E60" s="36"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
         <v>114</v>
@@ -3367,7 +3490,7 @@
       <c r="D61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="36"/>
+      <c r="E61" s="37"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3642,7 +3765,7 @@
         <v>189</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="38" t="s">
         <v>324</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3663,7 +3786,7 @@
         <v>191</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="38"/>
+      <c r="E75" s="39"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
@@ -3682,7 +3805,7 @@
         <v>193</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="38"/>
+      <c r="E76" s="39"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3701,7 +3824,7 @@
         <v>195</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="38"/>
+      <c r="E77" s="39"/>
       <c r="F77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3720,7 +3843,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="39"/>
+      <c r="E78" s="40"/>
       <c r="F78" s="6" t="s">
         <v>114</v>
       </c>
@@ -3802,7 +3925,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="37" t="s">
+      <c r="E82" s="38" t="s">
         <v>326</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -3827,7 +3950,7 @@
         <v>156</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="38"/>
+      <c r="E83" s="39"/>
       <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -3844,7 +3967,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="39"/>
+      <c r="E84" s="40"/>
       <c r="F84" s="6"/>
       <c r="G84" s="4" t="s">
         <v>114</v>
@@ -3865,7 +3988,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="32" t="s">
+      <c r="E85" s="33" t="s">
         <v>327</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -3890,7 +4013,7 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="33"/>
+      <c r="E86" s="34"/>
       <c r="F86" s="6" t="s">
         <v>114</v>
       </c>
@@ -3913,7 +4036,7 @@
       <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="32" t="s">
+      <c r="E87" s="33" t="s">
         <v>328</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -3938,7 +4061,7 @@
       <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="33"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4" t="s">
         <v>114</v>
@@ -4247,8 +4370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4268,7 +4391,7 @@
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="32" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4452,8 +4575,11 @@
         <v>266</v>
       </c>
       <c r="C16" s="5"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="18" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4461,8 +4587,11 @@
         <v>267</v>
       </c>
       <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="18" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4470,8 +4599,11 @@
         <v>234</v>
       </c>
       <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4479,8 +4611,11 @@
         <v>229</v>
       </c>
       <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4488,8 +4623,11 @@
         <v>230</v>
       </c>
       <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4497,8 +4635,11 @@
         <v>237</v>
       </c>
       <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4506,8 +4647,11 @@
         <v>231</v>
       </c>
       <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4515,8 +4659,11 @@
         <v>269</v>
       </c>
       <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4524,8 +4671,11 @@
         <v>270</v>
       </c>
       <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4533,8 +4683,11 @@
         <v>255</v>
       </c>
       <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="18" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4542,8 +4695,11 @@
         <v>256</v>
       </c>
       <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="18" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4553,8 +4709,11 @@
       <c r="C27" s="5" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4562,8 +4721,11 @@
         <v>258</v>
       </c>
       <c r="C28" s="5"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4571,8 +4733,11 @@
         <v>259</v>
       </c>
       <c r="C29" s="5"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4580,8 +4745,11 @@
         <v>260</v>
       </c>
       <c r="C30" s="5"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4589,37 +4757,49 @@
         <v>261</v>
       </c>
       <c r="C31" s="5"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="41" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="40"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="41"/>
+      <c r="D33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="40"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="41"/>
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4627,8 +4807,11 @@
         <v>232</v>
       </c>
       <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4636,8 +4819,11 @@
         <v>265</v>
       </c>
       <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4648,7 +4834,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4656,8 +4842,11 @@
         <v>271</v>
       </c>
       <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4665,8 +4854,11 @@
         <v>209</v>
       </c>
       <c r="C39" s="5"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4674,8 +4866,11 @@
         <v>210</v>
       </c>
       <c r="C40" s="5"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4685,8 +4880,11 @@
       <c r="C41" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="42" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4694,10 +4892,13 @@
         <v>213</v>
       </c>
       <c r="C42" s="5"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
+      <c r="D42" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>376</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>214</v>
@@ -4705,8 +4906,11 @@
       <c r="C43" s="5" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4716,8 +4920,11 @@
       <c r="C44" s="5" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4727,8 +4934,11 @@
       <c r="C45" s="5" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4739,25 +4949,25 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="41" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="40"/>
+      <c r="C48" s="41"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -4766,7 +4976,7 @@
       <c r="B49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="40"/>
+      <c r="C49" s="41"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
@@ -4775,7 +4985,7 @@
       <c r="B50" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="41" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4786,7 +4996,7 @@
       <c r="B51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="40"/>
+      <c r="C51" s="41"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
@@ -4795,7 +5005,7 @@
       <c r="B52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="40"/>
+      <c r="C52" s="41"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
@@ -4804,7 +5014,7 @@
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="41" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4815,7 +5025,7 @@
       <c r="B54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="40"/>
+      <c r="C54" s="41"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
@@ -4824,7 +5034,7 @@
       <c r="B55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="40"/>
+      <c r="C55" s="41"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
@@ -4843,7 +5053,17 @@
     <mergeCell ref="C32:C34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D23" r:id="rId1" xr:uid="{F4296ADF-D915-4124-989A-46AEAB440D91}"/>
+    <hyperlink ref="D24" r:id="rId2" xr:uid="{E2650D25-25B6-4D03-8D77-F73EFA69954B}"/>
+    <hyperlink ref="D16" r:id="rId3" xr:uid="{D783D644-4ED3-4B45-8DBD-90EF53B37BCD}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{62343F2D-35BE-413A-93DB-B1EDD56F840E}"/>
+    <hyperlink ref="D25" r:id="rId5" xr:uid="{064C1A7E-7942-4441-8FE1-0F477D0D1790}"/>
+    <hyperlink ref="D26" r:id="rId6" xr:uid="{37F90F84-4AC9-48B1-A894-919EAF38C587}"/>
+    <hyperlink ref="D41" r:id="rId7" xr:uid="{5909E0E4-87E1-4C0D-AC57-26F72CBD1352}"/>
+    <hyperlink ref="D43" r:id="rId8" xr:uid="{682E33F0-35B9-4F0B-992E-DD3B06C5BCAC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/美智医疗/检查服务设计书原材料0717.xlsx
+++ b/美智医疗/检查服务设计书原材料0717.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD766736-9E70-45EE-8222-2E96C378C722}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{086B3C3D-2F69-C043-B43A-4D2971EEE8E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="468" windowWidth="33600" windowHeight="18948" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="381">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1513,12 +1513,16 @@
     <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/value[1]/originalText</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/PRSC_IN010101UV01/controlActProcess[1]/subject[1]/actAppointment[1]/subject[1]/patient[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1739,6 +1743,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1765,9 +1772,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2056,17 +2060,17 @@
       <selection activeCell="B4" sqref="B4:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="56.6640625" customWidth="1"/>
     <col min="6" max="6" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2122,7 +2126,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2132,7 +2136,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2142,7 +2146,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2152,7 +2156,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2162,7 +2166,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2187,24 +2191,24 @@
   <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.44140625" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="34.5" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2234,7 +2238,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2253,7 +2257,7 @@
       </c>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2274,7 +2278,7 @@
       </c>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2295,7 +2299,7 @@
       </c>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2316,7 +2320,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2335,7 +2339,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2354,7 +2358,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2375,7 +2379,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2394,7 +2398,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2434,7 +2438,7 @@
       </c>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2453,7 +2457,7 @@
       </c>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2476,7 +2480,7 @@
       </c>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2497,7 +2501,7 @@
       </c>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2518,7 +2522,7 @@
       </c>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2531,7 +2535,7 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="35" t="s">
+      <c r="E16" s="36" t="s">
         <v>313</v>
       </c>
       <c r="F16" s="6"/>
@@ -2541,7 +2545,7 @@
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2554,7 +2558,7 @@
       <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="37"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -2562,7 +2566,7 @@
       </c>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2575,7 +2579,7 @@
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="37"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2583,7 +2587,7 @@
       </c>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2596,7 +2600,7 @@
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="37"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
@@ -2604,7 +2608,7 @@
       </c>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2617,7 +2621,7 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="37"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -2625,7 +2629,7 @@
       </c>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2638,7 +2642,7 @@
       <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="36"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -2646,7 +2650,7 @@
       </c>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="36"/>
+      <c r="E22" s="37"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -2667,7 +2671,7 @@
       </c>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2680,7 +2684,7 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -2688,7 +2692,7 @@
       </c>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2701,7 +2705,7 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="36"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -2709,7 +2713,7 @@
       </c>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2722,7 +2726,7 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="36"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -2730,7 +2734,7 @@
       </c>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2743,7 +2747,7 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="36"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -2751,7 +2755,7 @@
       </c>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2764,7 +2768,7 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="36"/>
+      <c r="E27" s="37"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -2772,7 +2776,7 @@
       </c>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2785,7 +2789,7 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="37"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -2793,7 +2797,7 @@
       </c>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2812,7 +2816,7 @@
       </c>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2831,7 +2835,7 @@
       </c>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2852,7 +2856,7 @@
       </c>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2875,7 +2879,7 @@
       </c>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2894,7 +2898,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2934,7 +2938,7 @@
       </c>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2955,7 +2959,7 @@
       </c>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2997,7 +3001,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3018,7 +3022,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -3037,7 +3041,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -3056,7 +3060,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -3075,7 +3079,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3096,7 +3100,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3119,7 +3123,7 @@
       </c>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3138,7 +3142,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3161,7 +3165,7 @@
       </c>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3184,7 +3188,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3211,7 +3215,7 @@
       </c>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3236,7 +3240,7 @@
       </c>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3259,7 +3263,7 @@
       </c>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3282,7 +3286,7 @@
       </c>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3303,7 +3307,7 @@
       </c>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3324,7 +3328,7 @@
       </c>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3347,7 +3351,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3370,7 +3374,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3391,7 +3395,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3412,7 +3416,7 @@
       </c>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3433,7 +3437,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3446,7 +3450,7 @@
       <c r="D59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="35" t="s">
+      <c r="E59" s="36" t="s">
         <v>321</v>
       </c>
       <c r="F59" s="6"/>
@@ -3456,7 +3460,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3469,7 +3473,7 @@
       <c r="D60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="36"/>
+      <c r="E60" s="37"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
         <v>114</v>
@@ -3477,7 +3481,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="60">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3490,7 +3494,7 @@
       <c r="D61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="37"/>
+      <c r="E61" s="38"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3498,7 +3502,7 @@
       </c>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3517,7 +3521,7 @@
       </c>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3542,7 +3546,7 @@
       </c>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3582,7 +3586,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3605,7 +3609,7 @@
       </c>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3630,7 +3634,7 @@
       </c>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3651,7 +3655,7 @@
       </c>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3672,7 +3676,7 @@
       </c>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3693,7 +3697,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3712,7 +3716,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3733,7 +3737,7 @@
       </c>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3754,7 +3758,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3765,7 +3769,7 @@
         <v>189</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="38" t="s">
+      <c r="E74" s="39" t="s">
         <v>324</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -3775,7 +3779,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>191</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="39"/>
+      <c r="E75" s="40"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
@@ -3794,7 +3798,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3805,7 +3809,7 @@
         <v>193</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="39"/>
+      <c r="E76" s="40"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3813,7 +3817,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>195</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="39"/>
+      <c r="E77" s="40"/>
       <c r="F77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="40"/>
+      <c r="E78" s="41"/>
       <c r="F78" s="6" t="s">
         <v>114</v>
       </c>
@@ -3851,7 +3855,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3874,7 +3878,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -3895,7 +3899,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -3914,7 +3918,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -3925,7 +3929,7 @@
         <v>82</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="38" t="s">
+      <c r="E82" s="39" t="s">
         <v>326</v>
       </c>
       <c r="F82" s="6" t="s">
@@ -3939,7 +3943,7 @@
       </c>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -3950,13 +3954,13 @@
         <v>156</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="39"/>
+      <c r="E83" s="40"/>
       <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -3967,7 +3971,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="40"/>
+      <c r="E84" s="41"/>
       <c r="F84" s="6"/>
       <c r="G84" s="4" t="s">
         <v>114</v>
@@ -3977,7 +3981,7 @@
       </c>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="20">
         <v>84</v>
       </c>
@@ -3988,7 +3992,7 @@
         <v>154</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="33" t="s">
+      <c r="E85" s="34" t="s">
         <v>327</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -4000,7 +4004,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="24">
         <v>85</v>
       </c>
@@ -4013,7 +4017,7 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="34"/>
+      <c r="E86" s="35"/>
       <c r="F86" s="6" t="s">
         <v>114</v>
       </c>
@@ -4023,7 +4027,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4036,7 +4040,7 @@
       <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="33" t="s">
+      <c r="E87" s="34" t="s">
         <v>328</v>
       </c>
       <c r="F87" s="6" t="s">
@@ -4048,7 +4052,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4061,7 +4065,7 @@
       <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="34"/>
+      <c r="E88" s="35"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4" t="s">
         <v>114</v>
@@ -4091,21 +4095,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" customWidth="1"/>
     <col min="6" max="6" width="93.33203125" customWidth="1"/>
-    <col min="10" max="10" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4148,13 +4152,13 @@
         <v>333</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4172,7 +4176,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4217,7 +4221,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="31"/>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4233,7 +4237,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4246,7 +4250,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4259,7 +4263,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="31"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4272,7 +4276,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="31"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4285,7 +4289,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="31"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4298,7 +4302,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="31"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4314,7 +4318,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4327,7 +4331,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4370,18 +4374,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.77734375" customWidth="1"/>
-    <col min="4" max="4" width="114.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.83203125" customWidth="1"/>
+    <col min="4" max="4" width="114.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4421,7 +4425,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4433,7 +4437,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4445,7 +4449,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4495,7 +4499,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4519,7 +4523,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4543,7 +4547,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4591,7 +4595,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4615,7 +4619,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4639,7 +4643,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4663,7 +4667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4687,7 +4691,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4713,7 +4717,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4725,7 +4729,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4737,7 +4741,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4761,45 +4765,45 @@
         <v>365</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C32" s="41" t="s">
+      <c r="C32" s="42" t="s">
         <v>264</v>
       </c>
       <c r="D32" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C33" s="41"/>
+      <c r="C33" s="42"/>
       <c r="D33" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="41"/>
+      <c r="C34" s="42"/>
       <c r="D34" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4823,7 +4827,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4834,7 +4838,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4846,7 +4850,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4858,7 +4862,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4870,7 +4874,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4880,11 +4884,11 @@
       <c r="C41" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D41" s="42" t="s">
+      <c r="D41" s="33" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4896,7 +4900,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>376</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -4924,7 +4928,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -4949,94 +4953,94 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C47" s="41" t="s">
+      <c r="C47" s="42" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C48" s="41"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="42"/>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C49" s="41"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="42"/>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="42" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="41"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C51" s="42"/>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C52" s="41"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="42"/>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="42" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C54" s="41"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="42"/>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C55" s="41"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C55" s="42"/>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="6">
         <v>55</v>
       </c>

--- a/美智医疗/检查服务设计书原材料0717.xlsx
+++ b/美智医疗/检查服务设计书原材料0717.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{086B3C3D-2F69-C043-B43A-4D2971EEE8E0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DFFE52B5-9A2D-B84D-ACF9-878652218AB2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,7 +11,8 @@
     <sheet name="首页" sheetId="1" r:id="rId1"/>
     <sheet name="检查申请单" sheetId="2" r:id="rId2"/>
     <sheet name="检查预约信息" sheetId="12" r:id="rId3"/>
-    <sheet name="检查报告" sheetId="11" r:id="rId4"/>
+    <sheet name="检查预约" sheetId="13" r:id="rId4"/>
+    <sheet name="检查报告" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="397">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -780,10 +781,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一般临床检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>报告名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -872,10 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双肾、输尿管、膀胱未见明显异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>就诊卡号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,10 +929,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>就诊类别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -957,10 +946,6 @@
   </si>
   <si>
     <t>检查项目名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查结果-客观所见</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1406,78 +1391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/author/assignedAuthor/assignedPerson/name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/code/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/code/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observation/value/originalText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/methodCode/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/methodCode/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/targetSiteCode/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/targetSiteCode/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/performer[1]/assignedEntity/representedOrganization/name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/participant/participantRole/playingDevice/manufacturerModelName/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/ClinicalDocument/id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1490,10 +1403,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ClinicalDocument/code/@displayName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/ClinicalDocument/confidentialityCode/@code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1502,19 +1411,174 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[3]/observation/value/@code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/ClinicalDocument/component/structuredBody/component[2]/section/entry[2]/organizer/component[1]/observation/value[1]/originalText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/PRSC_IN010101UV01/controlActProcess[1]/subject[1]/actAppointment[1]/subject[1]/patient[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/observation/value/@code</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/text</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/author/time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/author/assignedAuthor/id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可循环，是否数据录入员？</t>
+    <rPh sb="0" eb="3">
+      <t>shi fou</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双肾、输尿管、膀胱未见明显异常，从内容看，和下面的报告结论是一个含义，建议去掉</t>
+    <rPh sb="0" eb="2">
+      <t>cong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/code/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查设备类型</t>
+    <rPh sb="0" eb="39">
+      <t>cong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>jian c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查设备类型名称</t>
+    <rPh sb="0" eb="2">
+      <t>jian c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查结果-客观所见</t>
+    <rPh sb="0" eb="4">
+      <t>ke guan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/id</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/code/@code</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/code/@displayName</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/effectiveTime</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/performer/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/id</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/performer/assignedEntity/representedOrganization/asOrganizationPartOf/wholeOrganization/name</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/documentationOf/serviceEvent/performer/assignedEntity/representedOrganization/name</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/author/assignedAuthor/assignedPerson/name</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/dataEnterer/time</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/dataEnterer/assignedEntity/id</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/dataEnterer/assignedEntity/assignedPerson/name</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/authenticator/assignedEntity/id</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/authenticator/assignedEntity/assignedPerson/name</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/participant/associatedEntity/code/@code</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/participant/associatedEntity/code/@displayName</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/organizer/component/observation</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/procedure/methodCode</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/procedure/methodCode/@displayName</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/procedure/targetSiteCode/@code</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/procedure/targetSiteCode/@displayName</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/participant/associatedEntity/id</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/authenticator/time</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/organizer/component/observationMedia/value</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/observation/value</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/observation/value/@displayName</t>
+  </si>
+  <si>
+    <t>/ClinicalDocument/component/structuredBody/component/section/entry/observation/author/assignedAuthor/assignedPerson/name</t>
+  </si>
+  <si>
+    <t>建议去掉</t>
+    <rPh sb="0" eb="2">
+      <t>jian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议去掉</t>
+    <rPh sb="0" eb="1">
+      <t>jian yi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PRSC_IN010101UV01/controlActProcess[1]/subject[1]/actAppointment[1]/code[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/PRSC_IN010101UV01/controlActProcess[1]/subject[1]/actAppointment[1]/effectiveTime[1]/originalText[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和检查项目重叠，建议去掉</t>
+    <rPh sb="0" eb="2">
+      <t>jian c</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1586,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1593,8 +1657,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1607,8 +1679,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1668,12 +1752,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1724,9 +1817,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1738,13 +1828,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1770,9 +1856,36 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2113,16 +2226,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -2201,7 +2314,7 @@
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.5" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="26" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -2221,8 +2334,8 @@
       <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>310</v>
+      <c r="E1" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>200</v>
@@ -2249,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="26"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="6"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
@@ -2270,7 +2383,7 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="6"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
@@ -2291,7 +2404,7 @@
       <c r="D4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="6"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
@@ -2311,7 +2424,7 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="13" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="4" t="s">
@@ -2428,8 +2541,8 @@
         <v>68</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="26" t="s">
-        <v>311</v>
+      <c r="E11" s="25" t="s">
+        <v>307</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="4"/>
@@ -2449,7 +2562,7 @@
         <v>70</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="26"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
@@ -2470,8 +2583,8 @@
       <c r="D13" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>312</v>
+      <c r="E13" s="25" t="s">
+        <v>308</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="4"/>
@@ -2493,7 +2606,7 @@
       <c r="D14" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="26"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="6"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
@@ -2514,7 +2627,7 @@
       <c r="D15" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="6"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
@@ -2535,8 +2648,8 @@
       <c r="D16" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="36" t="s">
-        <v>313</v>
+      <c r="E16" s="33" t="s">
+        <v>309</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="4"/>
@@ -2558,7 +2671,7 @@
       <c r="D17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="37"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="6"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
@@ -2579,7 +2692,7 @@
       <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="37"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="6"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4" t="s">
@@ -2600,7 +2713,7 @@
       <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="37"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="6"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4" t="s">
@@ -2621,7 +2734,7 @@
       <c r="D20" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="34"/>
       <c r="F20" s="6"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4" t="s">
@@ -2642,7 +2755,7 @@
       <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E21" s="37"/>
+      <c r="E21" s="34"/>
       <c r="F21" s="6"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4" t="s">
@@ -2663,7 +2776,7 @@
       <c r="D22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="37"/>
+      <c r="E22" s="34"/>
       <c r="F22" s="6"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
@@ -2684,7 +2797,7 @@
       <c r="D23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E23" s="37"/>
+      <c r="E23" s="34"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
@@ -2705,7 +2818,7 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="37"/>
+      <c r="E24" s="34"/>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
@@ -2726,7 +2839,7 @@
       <c r="D25" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="37"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="6"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
@@ -2747,7 +2860,7 @@
       <c r="D26" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="34"/>
       <c r="F26" s="6"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
@@ -2768,7 +2881,7 @@
       <c r="D27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E27" s="37"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="6"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
@@ -2789,7 +2902,7 @@
       <c r="D28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="38"/>
+      <c r="E28" s="35"/>
       <c r="F28" s="6"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
@@ -2808,7 +2921,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="6"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
@@ -2827,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="6"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
@@ -2846,8 +2959,8 @@
         <v>30</v>
       </c>
       <c r="D31" s="2"/>
-      <c r="E31" s="26" t="s">
-        <v>314</v>
+      <c r="E31" s="25" t="s">
+        <v>310</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="4"/>
@@ -2867,7 +2980,7 @@
         <v>53</v>
       </c>
       <c r="D32" s="2"/>
-      <c r="E32" s="26"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="6" t="s">
         <v>114</v>
       </c>
@@ -2928,7 +3041,7 @@
         <v>51</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="E35" s="26"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="6" t="s">
         <v>114</v>
       </c>
@@ -2949,7 +3062,7 @@
         <v>49</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="26"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="6" t="s">
         <v>114</v>
       </c>
@@ -2970,7 +3083,7 @@
         <v>55</v>
       </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="26"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="6" t="s">
         <v>114</v>
       </c>
@@ -3111,7 +3224,7 @@
         <v>72</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="E44" s="26"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="6" t="s">
         <v>114</v>
       </c>
@@ -3134,7 +3247,7 @@
         <v>177</v>
       </c>
       <c r="D45" s="2"/>
-      <c r="E45" s="26"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="6" t="s">
         <v>114</v>
       </c>
@@ -3153,7 +3266,7 @@
         <v>74</v>
       </c>
       <c r="D46" s="2"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="6" t="s">
         <v>114</v>
       </c>
@@ -3179,7 +3292,7 @@
         <v>172</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F47" s="6"/>
       <c r="G47" s="4" t="s">
@@ -3201,8 +3314,8 @@
       <c r="D48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E48" s="26" t="s">
-        <v>316</v>
+      <c r="E48" s="25" t="s">
+        <v>312</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>114</v>
@@ -3228,7 +3341,7 @@
       <c r="D49" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E49" s="26"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="6" t="s">
         <v>114</v>
       </c>
@@ -3253,7 +3366,7 @@
       <c r="D50" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="26"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="6"/>
       <c r="G50" s="4" t="s">
         <v>114</v>
@@ -3276,7 +3389,7 @@
       <c r="D51" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="25"/>
       <c r="F51" s="6"/>
       <c r="G51" s="4" t="s">
         <v>114</v>
@@ -3299,7 +3412,7 @@
       <c r="D52" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="26"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="6"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4" t="s">
@@ -3320,7 +3433,7 @@
       <c r="D53" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="26"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="6"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4" t="s">
@@ -3342,7 +3455,7 @@
         <v>127</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F54" s="6"/>
       <c r="G54" s="4" t="s">
@@ -3365,7 +3478,7 @@
         <v>170</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F55" s="6"/>
       <c r="G55" s="4" t="s">
@@ -3386,7 +3499,7 @@
       </c>
       <c r="D56" s="5"/>
       <c r="E56" s="13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F56" s="6"/>
       <c r="G56" s="4" t="s">
@@ -3408,7 +3521,7 @@
       <c r="D57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="26"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="6"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4" t="s">
@@ -3428,7 +3541,7 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="13" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F58" s="6"/>
       <c r="G58" s="4" t="s">
@@ -3450,8 +3563,8 @@
       <c r="D59" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E59" s="36" t="s">
-        <v>321</v>
+      <c r="E59" s="33" t="s">
+        <v>317</v>
       </c>
       <c r="F59" s="6"/>
       <c r="G59" s="4" t="s">
@@ -3473,7 +3586,7 @@
       <c r="D60" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E60" s="37"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="6"/>
       <c r="G60" s="4" t="s">
         <v>114</v>
@@ -3494,7 +3607,7 @@
       <c r="D61" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="E61" s="38"/>
+      <c r="E61" s="35"/>
       <c r="F61" s="6"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
@@ -3513,7 +3626,7 @@
         <v>18</v>
       </c>
       <c r="D62" s="2"/>
-      <c r="E62" s="26"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="6"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
@@ -3532,8 +3645,8 @@
         <v>22</v>
       </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="26" t="s">
-        <v>322</v>
+      <c r="E63" s="25" t="s">
+        <v>318</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>114</v>
@@ -3557,7 +3670,7 @@
         <v>24</v>
       </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="26"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="6"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
@@ -3576,8 +3689,8 @@
         <v>182</v>
       </c>
       <c r="D65" s="2"/>
-      <c r="E65" s="26" t="s">
-        <v>323</v>
+      <c r="E65" s="25" t="s">
+        <v>319</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>114</v>
@@ -3599,7 +3712,7 @@
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E66" s="26"/>
+      <c r="E66" s="25"/>
       <c r="F66" s="6"/>
       <c r="G66" s="4" t="s">
         <v>114</v>
@@ -3622,7 +3735,7 @@
       <c r="D67" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E67" s="26"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="6" t="s">
         <v>114</v>
       </c>
@@ -3645,7 +3758,7 @@
         <v>38</v>
       </c>
       <c r="D68" s="2"/>
-      <c r="E68" s="26"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="6"/>
       <c r="G68" s="4" t="s">
         <v>114</v>
@@ -3666,7 +3779,7 @@
         <v>40</v>
       </c>
       <c r="D69" s="2"/>
-      <c r="E69" s="26"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="6"/>
       <c r="G69" s="4" t="s">
         <v>114</v>
@@ -3727,7 +3840,7 @@
         <v>42</v>
       </c>
       <c r="D72" s="2"/>
-      <c r="E72" s="26"/>
+      <c r="E72" s="25"/>
       <c r="F72" s="6"/>
       <c r="G72" s="4" t="s">
         <v>114</v>
@@ -3769,8 +3882,8 @@
         <v>189</v>
       </c>
       <c r="D74" s="5"/>
-      <c r="E74" s="39" t="s">
-        <v>324</v>
+      <c r="E74" s="36" t="s">
+        <v>320</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>114</v>
@@ -3790,7 +3903,7 @@
         <v>191</v>
       </c>
       <c r="D75" s="5"/>
-      <c r="E75" s="40"/>
+      <c r="E75" s="37"/>
       <c r="F75" s="6" t="s">
         <v>114</v>
       </c>
@@ -3809,7 +3922,7 @@
         <v>193</v>
       </c>
       <c r="D76" s="5"/>
-      <c r="E76" s="40"/>
+      <c r="E76" s="37"/>
       <c r="F76" s="6" t="s">
         <v>114</v>
       </c>
@@ -3828,7 +3941,7 @@
         <v>195</v>
       </c>
       <c r="D77" s="5"/>
-      <c r="E77" s="40"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="6" t="s">
         <v>114</v>
       </c>
@@ -3847,7 +3960,7 @@
         <v>197</v>
       </c>
       <c r="D78" s="5"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="38"/>
       <c r="F78" s="6" t="s">
         <v>114</v>
       </c>
@@ -3866,8 +3979,8 @@
         <v>167</v>
       </c>
       <c r="D79" s="2"/>
-      <c r="E79" s="26" t="s">
-        <v>325</v>
+      <c r="E79" s="25" t="s">
+        <v>321</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>114</v>
@@ -3889,8 +4002,8 @@
         <v>169</v>
       </c>
       <c r="D80" s="2"/>
-      <c r="E80" s="26" t="s">
-        <v>320</v>
+      <c r="E80" s="25" t="s">
+        <v>316</v>
       </c>
       <c r="F80" s="6"/>
       <c r="G80" s="4" t="s">
@@ -3929,8 +4042,8 @@
         <v>82</v>
       </c>
       <c r="D82" s="2"/>
-      <c r="E82" s="39" t="s">
-        <v>326</v>
+      <c r="E82" s="36" t="s">
+        <v>322</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>114</v>
@@ -3954,7 +4067,7 @@
         <v>156</v>
       </c>
       <c r="D83" s="2"/>
-      <c r="E83" s="40"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="6"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -3971,7 +4084,7 @@
         <v>20</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="38"/>
       <c r="F84" s="6"/>
       <c r="G84" s="4" t="s">
         <v>114</v>
@@ -3985,15 +4098,15 @@
       <c r="A85" s="20">
         <v>84</v>
       </c>
-      <c r="B85" s="23" t="s">
+      <c r="B85" s="22" t="s">
         <v>153</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>154</v>
       </c>
       <c r="D85" s="5"/>
-      <c r="E85" s="34" t="s">
-        <v>327</v>
+      <c r="E85" s="31" t="s">
+        <v>323</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>114</v>
@@ -4005,10 +4118,10 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9">
-      <c r="A86" s="24">
+      <c r="A86" s="23">
         <v>85</v>
       </c>
-      <c r="B86" s="25" t="s">
+      <c r="B86" s="24" t="s">
         <v>157</v>
       </c>
       <c r="C86" s="13" t="s">
@@ -4017,7 +4130,7 @@
       <c r="D86" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E86" s="35"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="6" t="s">
         <v>114</v>
       </c>
@@ -4040,8 +4153,8 @@
       <c r="D87" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>328</v>
+      <c r="E87" s="31" t="s">
+        <v>324</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>114</v>
@@ -4065,7 +4178,7 @@
       <c r="D88" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E88" s="35"/>
+      <c r="E88" s="32"/>
       <c r="F88" s="6"/>
       <c r="G88" s="4" t="s">
         <v>114</v>
@@ -4096,7 +4209,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -4122,75 +4235,78 @@
       <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>329</v>
+      <c r="E1" s="28" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>325</v>
       </c>
       <c r="G1" s="18" t="s">
         <v>205</v>
       </c>
       <c r="J1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>380</v>
+      <c r="C2" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>269</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="47" t="s">
+        <v>354</v>
       </c>
       <c r="J2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F3" t="s">
-        <v>331</v>
+      <c r="B3" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="48" t="s">
+        <v>330</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="31" t="s">
-        <v>335</v>
+      <c r="B4" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>273</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>331</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4198,14 +4314,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D5" s="5"/>
-      <c r="E5" s="31" t="s">
-        <v>336</v>
+      <c r="E5" s="29" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4213,28 +4329,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D6" s="5"/>
-      <c r="E6" s="31"/>
+      <c r="E6" s="29"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="50">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="28" t="s">
-        <v>330</v>
+      <c r="B7" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="47" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4242,123 +4358,132 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="29"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="51">
+        <v>8</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>392</v>
+      </c>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="51">
+        <v>9</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="31"/>
+      <c r="D10" s="52" t="s">
+        <v>393</v>
+      </c>
+      <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="31"/>
+      <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="50">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="50">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
         <v>292</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="D14" s="40"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="41" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="50">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
         <v>294</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="31"/>
-      <c r="F13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
+      <c r="D15" s="40"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="41" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="53">
+        <v>15</v>
+      </c>
+      <c r="B16" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="31"/>
-      <c r="F15" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="31"/>
+      <c r="D16" s="54" t="s">
+        <v>396</v>
+      </c>
+      <c r="E16" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4371,18 +4496,31 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7E6059-B3FC-314F-9467-F8A7931B9EBB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" customWidth="1"/>
-    <col min="4" max="4" width="114.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="131.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -4395,436 +4533,440 @@
       <c r="C1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="30" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="39">
+        <v>1</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="39">
+        <v>2</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="39">
+        <v>3</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>305</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="39">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="39">
+        <v>5</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="39">
+        <v>6</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="39">
+        <v>7</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="39">
+        <v>8</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="39">
+        <v>9</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="11" spans="1:4">
+      <c r="A11" s="39">
+        <v>10</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="39">
+        <v>11</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="41" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="39">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>237</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="39">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="39">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="40"/>
+      <c r="D15" s="41" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="39">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="39">
+        <v>16</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C17" s="40"/>
+      <c r="D17" s="42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="39">
+        <v>17</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="41" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="39">
+        <v>18</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="39">
+        <v>19</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="39">
+        <v>20</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="40"/>
+      <c r="D21" s="41" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="39">
+        <v>21</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>230</v>
+      </c>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="39">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="39">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="39">
+        <v>24</v>
+      </c>
+      <c r="B25" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="40"/>
+      <c r="D25" s="42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="39">
+        <v>25</v>
+      </c>
+      <c r="B26" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="C26" s="40"/>
+      <c r="D26" s="42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="39">
+        <v>26</v>
+      </c>
+      <c r="B27" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>308</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="18" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="18" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
+      <c r="C27" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="D27" s="41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="39">
+        <v>27</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="39">
+        <v>28</v>
+      </c>
+      <c r="B29" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="39">
+        <v>29</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="39">
+        <v>30</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="C31" s="40"/>
+      <c r="D31" s="41" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="39">
+        <v>31</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="D32" s="41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="39">
+        <v>32</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="43"/>
+      <c r="D33" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="39">
+        <v>33</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="C34" s="43"/>
+      <c r="D34" s="41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="39">
+        <v>34</v>
+      </c>
+      <c r="B35" s="40" t="s">
         <v>231</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="18" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="18" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="18" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
+      <c r="C35" s="40"/>
+      <c r="D35" s="41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="39">
+        <v>35</v>
+      </c>
+      <c r="B36" s="40" t="s">
         <v>261</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="C34" s="42"/>
-      <c r="D34" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" t="s">
-        <v>370</v>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4832,222 +4974,253 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="39">
+        <v>37</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="C38" s="40"/>
+      <c r="D38" s="41" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="40"/>
+      <c r="D39" s="41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="39">
+        <v>39</v>
+      </c>
+      <c r="B40" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C40" s="40"/>
+      <c r="D40" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="39">
+        <v>40</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>211</v>
+      </c>
+      <c r="C41" s="40"/>
+      <c r="D41" s="45" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="39">
+        <v>41</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="41" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="39">
+        <v>43</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="42" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="39">
+        <v>44</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>218</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="39">
+        <v>45</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="39">
+        <v>46</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="39">
+        <v>47</v>
+      </c>
+      <c r="B48" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" t="s">
+      <c r="C48" s="43"/>
+      <c r="D48" s="41" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="39">
+        <v>48</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="C49" s="43"/>
+      <c r="D49" s="41" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="39">
+        <v>49</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="39">
+        <v>50</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="43"/>
+      <c r="D51" s="41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="39">
+        <v>51</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C52" s="43"/>
+      <c r="D52" s="41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="39">
+        <v>52</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>247</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="39">
+        <v>53</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="41" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="39">
+        <v>54</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C55" s="43"/>
+      <c r="D55" s="41" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="D45" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="42" t="s">
+    <row r="56" spans="1:4">
+      <c r="A56" s="39">
+        <v>55</v>
+      </c>
+      <c r="B56" s="44" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="42"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C49" s="42"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="6">
-        <v>50</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C51" s="42"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="6">
-        <v>51</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C52" s="42"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="6">
-        <v>52</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="6">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C54" s="42"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="6">
-        <v>54</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C55" s="42"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="6">
-        <v>55</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>254</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="41" t="s">
+        <v>388</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5058,16 +5231,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D23" r:id="rId1" xr:uid="{F4296ADF-D915-4124-989A-46AEAB440D91}"/>
-    <hyperlink ref="D24" r:id="rId2" xr:uid="{E2650D25-25B6-4D03-8D77-F73EFA69954B}"/>
-    <hyperlink ref="D16" r:id="rId3" xr:uid="{D783D644-4ED3-4B45-8DBD-90EF53B37BCD}"/>
-    <hyperlink ref="D17" r:id="rId4" xr:uid="{62343F2D-35BE-413A-93DB-B1EDD56F840E}"/>
-    <hyperlink ref="D25" r:id="rId5" xr:uid="{064C1A7E-7942-4441-8FE1-0F477D0D1790}"/>
-    <hyperlink ref="D26" r:id="rId6" xr:uid="{37F90F84-4AC9-48B1-A894-919EAF38C587}"/>
-    <hyperlink ref="D41" r:id="rId7" xr:uid="{5909E0E4-87E1-4C0D-AC57-26F72CBD1352}"/>
-    <hyperlink ref="D43" r:id="rId8" xr:uid="{682E33F0-35B9-4F0B-992E-DD3B06C5BCAC}"/>
+    <hyperlink ref="D23" r:id="rId1" display="/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@code" xr:uid="{F4296ADF-D915-4124-989A-46AEAB440D91}"/>
+    <hyperlink ref="D24" r:id="rId2" display="/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@displayName" xr:uid="{E2650D25-25B6-4D03-8D77-F73EFA69954B}"/>
+    <hyperlink ref="D16" r:id="rId3" display="/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value@code" xr:uid="{D783D644-4ED3-4B45-8DBD-90EF53B37BCD}"/>
+    <hyperlink ref="D17" r:id="rId4" display="/ClinicalDocument/component/structuredBody/component/section/entry/act/entryRelationship/observation/value/@displayName" xr:uid="{62343F2D-35BE-413A-93DB-B1EDD56F840E}"/>
+    <hyperlink ref="D41" r:id="rId5" xr:uid="{5909E0E4-87E1-4C0D-AC57-26F72CBD1352}"/>
+    <hyperlink ref="D43" r:id="rId6" xr:uid="{682E33F0-35B9-4F0B-992E-DD3B06C5BCAC}"/>
+    <hyperlink ref="D44" r:id="rId7" display="/ClinicalDocument/component/structuredBody/component/section/entry/observation/value/@code" xr:uid="{62221A19-78CF-D347-89BE-7D00AB399C81}"/>
+    <hyperlink ref="D25" r:id="rId8" display="/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@code" xr:uid="{C9CE786D-B587-1C43-B36A-5DC713276BE7}"/>
+    <hyperlink ref="D26" r:id="rId9" display="/ClinicalDocument/component/structuredBody/component/section/entry/organizer/code/@displayName" xr:uid="{E10AF6E5-6AC3-D94C-9C74-213212E666BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>